--- a/Time_For_Tasks_Germany.xlsx
+++ b/Time_For_Tasks_Germany.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Niklas/Dropbox/MPSYS/Python/Code/Lab1_shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8439F3A0-9CAC-3A47-A382-795818BC7CC9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="16460" xr2:uid="{D052627E-E33D-FE48-BE37-B74DB821E7D5}"/>
   </bookViews>
@@ -71,7 +72,7 @@
     <t>4.60</t>
   </si>
   <si>
-    <t>311.0</t>
+    <t>262.0</t>
   </si>
 </sst>
 </file>
